--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_P4_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.1200370209942</v>
+        <v>1081.889623723861</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.077407377069869</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.314377419160874</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.7</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,17 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -736,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090583</v>
+        <v>2.469817807045693</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.84866676379884</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.61296311465065</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.75827869138005</v>
+        <v>12.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.57537733795152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +953,34 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.4099999999994</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5049999999994</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0549999999994</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>146.3600000000009</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>139.4300000000009</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>146.0200000000009</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>150.7</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>150.2900000000008</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>100.760000000001</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>100.705000000001</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>103.625000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>112.525000000001</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.025000000001</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.4099999999994</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5049999999994</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.0549999999994</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7249999999994</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>146.3600000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>139.4300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>146.0200000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>150.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>150.2900000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1610,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +1952,72 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
